--- a/config_debug/xian_shi_hong_bao_server.xlsx
+++ b/config_debug/xian_shi_hong_bao_server.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id|任务id</t>
   </si>
@@ -70,6 +70,9 @@
     <t>单笔充值≥6元</t>
   </si>
   <si>
+    <t>xshb_042_deblocking_v0</t>
+  </si>
+  <si>
     <t>携带金币20万</t>
   </si>
 </sst>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -116,22 +119,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -139,7 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +141,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,29 +170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +194,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,17 +218,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,23 +247,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,25 +289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +319,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +397,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,127 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,8 +500,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,26 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,11 +574,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,138 +613,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1125,7 +1128,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1336,7 +1339,9 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="1">
         <v>9</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>1000664</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>

--- a/config_debug/xian_shi_hong_bao_server.xlsx
+++ b/config_debug/xian_shi_hong_bao_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id|任务id</t>
   </si>
@@ -81,6 +81,23 @@
     <t>携带金币2万</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>携带金币2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -98,6 +115,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -116,23 +134,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +209,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +255,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +549,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,8 +797,31 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>30045</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
